--- a/PythonResources/Data/Consumption/Sympheny/futu_1380_hea.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/futu_1380_hea.xlsx
@@ -495,7 +495,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>300.9312039182426</v>
+        <v>300.9312039182425</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -551,7 +551,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>287.7397833970568</v>
+        <v>287.7397833970567</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -575,7 +575,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>317.615738149233</v>
+        <v>317.6157381492329</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -671,7 +671,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>96.04670614528941</v>
+        <v>96.04670614528938</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -727,7 +727,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>223.2814460828419</v>
+        <v>223.2814460828418</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -831,7 +831,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>43.85427101216773</v>
+        <v>43.85427101216772</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -975,7 +975,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>224.5609942376373</v>
+        <v>224.5609942376372</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -983,7 +983,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>66.72846557968573</v>
+        <v>66.72846557968572</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1023,7 +1023,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>39.32456503861798</v>
+        <v>39.32456503861797</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1119,7 +1119,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>187.8227811152057</v>
+        <v>187.8227811152056</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1239,7 +1239,7 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>110.2325167006532</v>
+        <v>110.2325167006531</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1335,7 +1335,7 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>284.112736222584</v>
+        <v>284.1127362225839</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1607,7 +1607,7 @@
         <v>158</v>
       </c>
       <c r="B158">
-        <v>65.53361495506343</v>
+        <v>65.53361495506341</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -1663,7 +1663,7 @@
         <v>165</v>
       </c>
       <c r="B165">
-        <v>218.8185603061069</v>
+        <v>218.8185603061068</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -1815,7 +1815,7 @@
         <v>184</v>
       </c>
       <c r="B184">
-        <v>51.77246433471996</v>
+        <v>51.77246433471995</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -1831,7 +1831,7 @@
         <v>186</v>
       </c>
       <c r="B186">
-        <v>60.15429604043443</v>
+        <v>60.15429604043442</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -1855,7 +1855,7 @@
         <v>189</v>
       </c>
       <c r="B189">
-        <v>149.6728447995424</v>
+        <v>149.6728447995423</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -1927,7 +1927,7 @@
         <v>198</v>
       </c>
       <c r="B198">
-        <v>367.2854177815578</v>
+        <v>367.2854177815577</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -1943,7 +1943,7 @@
         <v>200</v>
       </c>
       <c r="B200">
-        <v>218.7965799782073</v>
+        <v>218.7965799782072</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -2207,7 +2207,7 @@
         <v>233</v>
       </c>
       <c r="B233">
-        <v>84.33998350596195</v>
+        <v>84.33998350596194</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2287,7 +2287,7 @@
         <v>243</v>
       </c>
       <c r="B243">
-        <v>335.9092323824742</v>
+        <v>335.9092323824741</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -2319,7 +2319,7 @@
         <v>247</v>
       </c>
       <c r="B247">
-        <v>351.19581775905</v>
+        <v>351.1958177590499</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -2335,7 +2335,7 @@
         <v>249</v>
       </c>
       <c r="B249">
-        <v>177.2379344118739</v>
+        <v>177.2379344118738</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -2391,7 +2391,7 @@
         <v>256</v>
       </c>
       <c r="B256">
-        <v>72.37359992638056</v>
+        <v>72.37359992638055</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -2615,7 +2615,7 @@
         <v>284</v>
       </c>
       <c r="B284">
-        <v>66.17075139311319</v>
+        <v>66.17075139311318</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -2743,7 +2743,7 @@
         <v>300</v>
       </c>
       <c r="B300">
-        <v>20.4749685095169</v>
+        <v>20.47496850951689</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -2775,7 +2775,7 @@
         <v>304</v>
       </c>
       <c r="B304">
-        <v>4.443337938456255</v>
+        <v>4.443337938456254</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -2831,7 +2831,7 @@
         <v>311</v>
       </c>
       <c r="B311">
-        <v>85.42551863316358</v>
+        <v>85.42551863316356</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -2855,7 +2855,7 @@
         <v>314</v>
       </c>
       <c r="B314">
-        <v>144.7598019074236</v>
+        <v>144.7598019074235</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -2871,7 +2871,7 @@
         <v>316</v>
       </c>
       <c r="B316">
-        <v>171.4134405895183</v>
+        <v>171.4134405895182</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -2991,7 +2991,7 @@
         <v>331</v>
       </c>
       <c r="B331">
-        <v>68.84531769193663</v>
+        <v>68.84531769193661</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -3015,7 +3015,7 @@
         <v>334</v>
       </c>
       <c r="B334">
-        <v>82.98746066253985</v>
+        <v>82.98746066253983</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -3031,7 +3031,7 @@
         <v>336</v>
       </c>
       <c r="B336">
-        <v>124.6143917808814</v>
+        <v>124.6143917808813</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -3063,7 +3063,7 @@
         <v>340</v>
       </c>
       <c r="B340">
-        <v>170.4536329379024</v>
+        <v>170.4536329379023</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -3095,7 +3095,7 @@
         <v>344</v>
       </c>
       <c r="B344">
-        <v>23.90785612087657</v>
+        <v>23.90785612087656</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -3151,7 +3151,7 @@
         <v>351</v>
       </c>
       <c r="B351">
-        <v>7.553993942807773</v>
+        <v>7.553993942807772</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -3167,7 +3167,7 @@
         <v>353</v>
       </c>
       <c r="B353">
-        <v>4.064309164155537</v>
+        <v>4.064309164155536</v>
       </c>
     </row>
     <row r="354" spans="1:2">
@@ -3183,7 +3183,7 @@
         <v>355</v>
       </c>
       <c r="B355">
-        <v>67.37029115435408</v>
+        <v>67.37029115435406</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -3247,7 +3247,7 @@
         <v>363</v>
       </c>
       <c r="B363">
-        <v>193.6188470468111</v>
+        <v>193.618847046811</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -3359,7 +3359,7 @@
         <v>377</v>
       </c>
       <c r="B377">
-        <v>5.013917943626028</v>
+        <v>5.013917943626027</v>
       </c>
     </row>
     <row r="378" spans="1:2">
@@ -3367,7 +3367,7 @@
         <v>378</v>
       </c>
       <c r="B378">
-        <v>6.420600314992753</v>
+        <v>6.420600314992752</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -3847,7 +3847,7 @@
         <v>438</v>
       </c>
       <c r="B438">
-        <v>349.8183838773416</v>
+        <v>349.8183838773415</v>
       </c>
     </row>
     <row r="439" spans="1:2">
@@ -4047,7 +4047,7 @@
         <v>463</v>
       </c>
       <c r="B463">
-        <v>340.0767025522385</v>
+        <v>340.0767025522384</v>
       </c>
     </row>
     <row r="464" spans="1:2">
@@ -4111,7 +4111,7 @@
         <v>471</v>
       </c>
       <c r="B471">
-        <v>76.62840526566598</v>
+        <v>76.62840526566596</v>
       </c>
     </row>
     <row r="472" spans="1:2">
@@ -4167,7 +4167,7 @@
         <v>478</v>
       </c>
       <c r="B478">
-        <v>229.4464884521219</v>
+        <v>229.4464884521218</v>
       </c>
     </row>
     <row r="479" spans="1:2">
@@ -4207,7 +4207,7 @@
         <v>483</v>
       </c>
       <c r="B483">
-        <v>298.5485363739259</v>
+        <v>298.5485363739258</v>
       </c>
     </row>
     <row r="484" spans="1:2">
@@ -4271,7 +4271,7 @@
         <v>491</v>
       </c>
       <c r="B491">
-        <v>84.7195105010284</v>
+        <v>84.71951050102838</v>
       </c>
     </row>
     <row r="492" spans="1:2">
@@ -4447,7 +4447,7 @@
         <v>513</v>
       </c>
       <c r="B513">
-        <v>144.8020041369908</v>
+        <v>144.8020041369907</v>
       </c>
     </row>
     <row r="514" spans="1:2">
@@ -4511,7 +4511,7 @@
         <v>521</v>
       </c>
       <c r="B521">
-        <v>98.25558256367997</v>
+        <v>98.25558256367994</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -4623,7 +4623,7 @@
         <v>535</v>
       </c>
       <c r="B535">
-        <v>265.6973244372597</v>
+        <v>265.6973244372596</v>
       </c>
     </row>
     <row r="536" spans="1:2">
@@ -4815,7 +4815,7 @@
         <v>559</v>
       </c>
       <c r="B559">
-        <v>322.445548866372</v>
+        <v>322.4455488663719</v>
       </c>
     </row>
     <row r="560" spans="1:2">
@@ -4847,7 +4847,7 @@
         <v>563</v>
       </c>
       <c r="B563">
-        <v>117.714913388716</v>
+        <v>117.7149133887159</v>
       </c>
     </row>
     <row r="564" spans="1:2">
@@ -4975,7 +4975,7 @@
         <v>579</v>
       </c>
       <c r="B579">
-        <v>236.823965708344</v>
+        <v>236.8239657083439</v>
       </c>
     </row>
     <row r="580" spans="1:2">
@@ -5583,7 +5583,7 @@
         <v>655</v>
       </c>
       <c r="B655">
-        <v>307.7626898294386</v>
+        <v>307.7626898294385</v>
       </c>
     </row>
     <row r="656" spans="1:2">
@@ -5695,7 +5695,7 @@
         <v>669</v>
       </c>
       <c r="B669">
-        <v>180.6044414329768</v>
+        <v>180.6044414329767</v>
       </c>
     </row>
     <row r="670" spans="1:2">
@@ -5703,7 +5703,7 @@
         <v>670</v>
       </c>
       <c r="B670">
-        <v>194.2770845996445</v>
+        <v>194.2770845996444</v>
       </c>
     </row>
     <row r="671" spans="1:2">
@@ -5791,7 +5791,7 @@
         <v>681</v>
       </c>
       <c r="B681">
-        <v>111.1134882428692</v>
+        <v>111.1134882428691</v>
       </c>
     </row>
     <row r="682" spans="1:2">
@@ -5967,7 +5967,7 @@
         <v>703</v>
       </c>
       <c r="B703">
-        <v>245.9756950326218</v>
+        <v>245.9756950326217</v>
       </c>
     </row>
     <row r="704" spans="1:2">
@@ -5991,7 +5991,7 @@
         <v>706</v>
       </c>
       <c r="B706">
-        <v>96.71432197135994</v>
+        <v>96.71432197135992</v>
       </c>
     </row>
     <row r="707" spans="1:2">
@@ -6007,7 +6007,7 @@
         <v>708</v>
       </c>
       <c r="B708">
-        <v>39.29906785825444</v>
+        <v>39.29906785825443</v>
       </c>
     </row>
     <row r="709" spans="1:2">
@@ -6079,7 +6079,7 @@
         <v>717</v>
       </c>
       <c r="B717">
-        <v>7.898938555312177</v>
+        <v>7.898938555312176</v>
       </c>
     </row>
     <row r="718" spans="1:2">
@@ -6175,7 +6175,7 @@
         <v>729</v>
       </c>
       <c r="B729">
-        <v>40.53699992555996</v>
+        <v>40.53699992555995</v>
       </c>
     </row>
     <row r="730" spans="1:2">
@@ -6431,7 +6431,7 @@
         <v>761</v>
       </c>
       <c r="B761">
-        <v>8.866131597102349</v>
+        <v>8.866131597102347</v>
       </c>
     </row>
     <row r="762" spans="1:2">
@@ -6615,7 +6615,7 @@
         <v>784</v>
       </c>
       <c r="B784">
-        <v>74.2718210437901</v>
+        <v>74.27182104379008</v>
       </c>
     </row>
     <row r="785" spans="1:2">
@@ -6679,7 +6679,7 @@
         <v>792</v>
       </c>
       <c r="B792">
-        <v>218.2151270375032</v>
+        <v>218.2151270375031</v>
       </c>
     </row>
     <row r="793" spans="1:2">
@@ -6711,7 +6711,7 @@
         <v>796</v>
       </c>
       <c r="B796">
-        <v>303.3636935391318</v>
+        <v>303.3636935391317</v>
       </c>
     </row>
     <row r="797" spans="1:2">
@@ -6847,7 +6847,7 @@
         <v>813</v>
       </c>
       <c r="B813">
-        <v>176.8921105862535</v>
+        <v>176.8921105862534</v>
       </c>
     </row>
     <row r="814" spans="1:2">
@@ -6855,7 +6855,7 @@
         <v>814</v>
       </c>
       <c r="B814">
-        <v>179.5760551583141</v>
+        <v>179.576055158314</v>
       </c>
     </row>
     <row r="815" spans="1:2">
@@ -7103,7 +7103,7 @@
         <v>845</v>
       </c>
       <c r="B845">
-        <v>231.7520783132707</v>
+        <v>231.7520783132706</v>
       </c>
     </row>
     <row r="846" spans="1:2">
@@ -7151,7 +7151,7 @@
         <v>851</v>
       </c>
       <c r="B851">
-        <v>41.599675511746</v>
+        <v>41.59967551174599</v>
       </c>
     </row>
     <row r="852" spans="1:2">
@@ -7199,7 +7199,7 @@
         <v>857</v>
       </c>
       <c r="B857">
-        <v>0.3122027160651579</v>
+        <v>0.3122027160651578</v>
       </c>
     </row>
     <row r="858" spans="1:2">
@@ -7263,7 +7263,7 @@
         <v>865</v>
       </c>
       <c r="B865">
-        <v>88.75509870339512</v>
+        <v>88.75509870339511</v>
       </c>
     </row>
     <row r="866" spans="1:2">
@@ -7335,7 +7335,7 @@
         <v>874</v>
       </c>
       <c r="B874">
-        <v>21.04730694091864</v>
+        <v>21.04730694091863</v>
       </c>
     </row>
     <row r="875" spans="1:2">
@@ -7431,7 +7431,7 @@
         <v>886</v>
       </c>
       <c r="B886">
-        <v>34.42529648531627</v>
+        <v>34.42529648531626</v>
       </c>
     </row>
     <row r="887" spans="1:2">
@@ -7447,7 +7447,7 @@
         <v>888</v>
       </c>
       <c r="B888">
-        <v>104.0874031620021</v>
+        <v>104.087403162002</v>
       </c>
     </row>
     <row r="889" spans="1:2">
@@ -7503,7 +7503,7 @@
         <v>895</v>
       </c>
       <c r="B895">
-        <v>242.455911858299</v>
+        <v>242.4559118582989</v>
       </c>
     </row>
     <row r="896" spans="1:2">
@@ -7511,7 +7511,7 @@
         <v>896</v>
       </c>
       <c r="B896">
-        <v>84.04193025964337</v>
+        <v>84.04193025964335</v>
       </c>
     </row>
     <row r="897" spans="1:2">
@@ -7591,7 +7591,7 @@
         <v>906</v>
       </c>
       <c r="B906">
-        <v>47.36731355260128</v>
+        <v>47.36731355260127</v>
       </c>
     </row>
     <row r="907" spans="1:2">
@@ -7631,7 +7631,7 @@
         <v>911</v>
       </c>
       <c r="B911">
-        <v>161.9976542594066</v>
+        <v>161.9976542594065</v>
       </c>
     </row>
     <row r="912" spans="1:2">
@@ -7751,7 +7751,7 @@
         <v>926</v>
       </c>
       <c r="B926">
-        <v>76.89861676331174</v>
+        <v>76.89861676331172</v>
       </c>
     </row>
     <row r="927" spans="1:2">
@@ -7935,7 +7935,7 @@
         <v>949</v>
       </c>
       <c r="B949">
-        <v>58.13650193925107</v>
+        <v>58.13650193925106</v>
       </c>
     </row>
     <row r="950" spans="1:2">
@@ -7991,7 +7991,7 @@
         <v>956</v>
       </c>
       <c r="B956">
-        <v>134.1424243188004</v>
+        <v>134.1424243188003</v>
       </c>
     </row>
     <row r="957" spans="1:2">
@@ -8015,7 +8015,7 @@
         <v>959</v>
       </c>
       <c r="B959">
-        <v>173.670673729288</v>
+        <v>173.6706737292879</v>
       </c>
     </row>
     <row r="960" spans="1:2">
@@ -8023,7 +8023,7 @@
         <v>960</v>
       </c>
       <c r="B960">
-        <v>218.1342394308327</v>
+        <v>218.1342394308326</v>
       </c>
     </row>
     <row r="961" spans="1:2">
@@ -8039,7 +8039,7 @@
         <v>962</v>
       </c>
       <c r="B962">
-        <v>285.9860463017073</v>
+        <v>285.9860463017072</v>
       </c>
     </row>
     <row r="963" spans="1:2">
@@ -8063,7 +8063,7 @@
         <v>965</v>
       </c>
       <c r="B965">
-        <v>351.597325082016</v>
+        <v>351.5973250820159</v>
       </c>
     </row>
     <row r="966" spans="1:2">
@@ -8103,7 +8103,7 @@
         <v>970</v>
       </c>
       <c r="B970">
-        <v>146.8804639431771</v>
+        <v>146.880463943177</v>
       </c>
     </row>
     <row r="971" spans="1:2">
@@ -8215,7 +8215,7 @@
         <v>984</v>
       </c>
       <c r="B984">
-        <v>298.2964952806771</v>
+        <v>298.296495280677</v>
       </c>
     </row>
     <row r="985" spans="1:2">
@@ -8255,7 +8255,7 @@
         <v>989</v>
       </c>
       <c r="B989">
-        <v>357.0455156907304</v>
+        <v>357.0455156907303</v>
       </c>
     </row>
     <row r="990" spans="1:2">
@@ -8287,7 +8287,7 @@
         <v>993</v>
       </c>
       <c r="B993">
-        <v>186.465569135165</v>
+        <v>186.4655691351649</v>
       </c>
     </row>
     <row r="994" spans="1:2">
@@ -8431,7 +8431,7 @@
         <v>1011</v>
       </c>
       <c r="B1011">
-        <v>323.1078894137466</v>
+        <v>323.1078894137465</v>
       </c>
     </row>
     <row r="1012" spans="1:2">
@@ -8775,7 +8775,7 @@
         <v>1054</v>
       </c>
       <c r="B1054">
-        <v>51.21709471645671</v>
+        <v>51.2170947164567</v>
       </c>
     </row>
     <row r="1055" spans="1:2">
@@ -8783,7 +8783,7 @@
         <v>1055</v>
       </c>
       <c r="B1055">
-        <v>72.19805037422242</v>
+        <v>72.1980503742224</v>
       </c>
     </row>
     <row r="1056" spans="1:2">
@@ -8879,7 +8879,7 @@
         <v>1067</v>
       </c>
       <c r="B1067">
-        <v>23.36045803486491</v>
+        <v>23.3604580348649</v>
       </c>
     </row>
     <row r="1068" spans="1:2">
@@ -9111,7 +9111,7 @@
         <v>1096</v>
       </c>
       <c r="B1096">
-        <v>6.234089905988673</v>
+        <v>6.234089905988672</v>
       </c>
     </row>
     <row r="1097" spans="1:2">
@@ -9127,7 +9127,7 @@
         <v>1098</v>
       </c>
       <c r="B1098">
-        <v>0.6937489705879768</v>
+        <v>0.6937489705879767</v>
       </c>
     </row>
     <row r="1099" spans="1:2">
@@ -9167,7 +9167,7 @@
         <v>1103</v>
       </c>
       <c r="B1103">
-        <v>59.13001276031303</v>
+        <v>59.13001276031302</v>
       </c>
     </row>
     <row r="1104" spans="1:2">
@@ -9247,7 +9247,7 @@
         <v>1113</v>
       </c>
       <c r="B1113">
-        <v>84.44724750611201</v>
+        <v>84.44724750611199</v>
       </c>
     </row>
     <row r="1114" spans="1:2">
@@ -9759,7 +9759,7 @@
         <v>1177</v>
       </c>
       <c r="B1177">
-        <v>103.8145540250084</v>
+        <v>103.8145540250083</v>
       </c>
     </row>
     <row r="1178" spans="1:2">
@@ -9863,7 +9863,7 @@
         <v>1190</v>
       </c>
       <c r="B1190">
-        <v>16.92373881274578</v>
+        <v>16.92373881274577</v>
       </c>
     </row>
     <row r="1191" spans="1:2">
@@ -9887,7 +9887,7 @@
         <v>1193</v>
       </c>
       <c r="B1193">
-        <v>7.396028652969308</v>
+        <v>7.396028652969307</v>
       </c>
     </row>
     <row r="1194" spans="1:2">
@@ -9895,7 +9895,7 @@
         <v>1194</v>
       </c>
       <c r="B1194">
-        <v>7.938708295258522</v>
+        <v>7.938708295258521</v>
       </c>
     </row>
     <row r="1195" spans="1:2">
@@ -9919,7 +9919,7 @@
         <v>1197</v>
       </c>
       <c r="B1197">
-        <v>62.88542504971951</v>
+        <v>62.8854250497195</v>
       </c>
     </row>
     <row r="1198" spans="1:2">
@@ -9951,7 +9951,7 @@
         <v>1201</v>
       </c>
       <c r="B1201">
-        <v>164.2865390713517</v>
+        <v>164.2865390713516</v>
       </c>
     </row>
     <row r="1202" spans="1:2">
@@ -9983,7 +9983,7 @@
         <v>1205</v>
       </c>
       <c r="B1205">
-        <v>234.5854891150486</v>
+        <v>234.5854891150485</v>
       </c>
     </row>
     <row r="1206" spans="1:2">
@@ -10127,7 +10127,7 @@
         <v>1223</v>
       </c>
       <c r="B1223">
-        <v>63.24209250377037</v>
+        <v>63.24209250377036</v>
       </c>
     </row>
     <row r="1224" spans="1:2">
@@ -10191,7 +10191,7 @@
         <v>1231</v>
       </c>
       <c r="B1231">
-        <v>235.2868081105652</v>
+        <v>235.2868081105651</v>
       </c>
     </row>
     <row r="1232" spans="1:2">
@@ -10279,7 +10279,7 @@
         <v>1242</v>
       </c>
       <c r="B1242">
-        <v>40.40716945543299</v>
+        <v>40.40716945543298</v>
       </c>
     </row>
     <row r="1243" spans="1:2">
@@ -10407,7 +10407,7 @@
         <v>1258</v>
       </c>
       <c r="B1258">
-        <v>125.6430711265827</v>
+        <v>125.6430711265826</v>
       </c>
     </row>
     <row r="1259" spans="1:2">
@@ -10495,7 +10495,7 @@
         <v>1269</v>
       </c>
       <c r="B1269">
-        <v>120.9067500707767</v>
+        <v>120.9067500707766</v>
       </c>
     </row>
     <row r="1270" spans="1:2">
@@ -10591,7 +10591,7 @@
         <v>1281</v>
       </c>
       <c r="B1281">
-        <v>81.06872457242402</v>
+        <v>81.068724572424</v>
       </c>
     </row>
     <row r="1282" spans="1:2">
@@ -10719,7 +10719,7 @@
         <v>1297</v>
       </c>
       <c r="B1297">
-        <v>179.893744164223</v>
+        <v>179.8937441642229</v>
       </c>
     </row>
     <row r="1298" spans="1:2">
@@ -10799,7 +10799,7 @@
         <v>1307</v>
       </c>
       <c r="B1307">
-        <v>26.74610259479237</v>
+        <v>26.74610259479236</v>
       </c>
     </row>
     <row r="1308" spans="1:2">
@@ -10887,7 +10887,7 @@
         <v>1318</v>
       </c>
       <c r="B1318">
-        <v>42.8886019397786</v>
+        <v>42.88860193977859</v>
       </c>
     </row>
     <row r="1319" spans="1:2">
@@ -11335,7 +11335,7 @@
         <v>1374</v>
       </c>
       <c r="B1374">
-        <v>141.2904269517506</v>
+        <v>141.2904269517505</v>
       </c>
     </row>
     <row r="1375" spans="1:2">
@@ -11447,7 +11447,7 @@
         <v>1388</v>
       </c>
       <c r="B1388">
-        <v>3.728068761499376</v>
+        <v>3.728068761499375</v>
       </c>
     </row>
     <row r="1389" spans="1:2">
@@ -11471,7 +11471,7 @@
         <v>1391</v>
       </c>
       <c r="B1391">
-        <v>26.16529441037331</v>
+        <v>26.1652944103733</v>
       </c>
     </row>
     <row r="1392" spans="1:2">
@@ -11671,7 +11671,7 @@
         <v>1416</v>
       </c>
       <c r="B1416">
-        <v>83.16623399612327</v>
+        <v>83.16623399612325</v>
       </c>
     </row>
     <row r="1417" spans="1:2">
@@ -11759,7 +11759,7 @@
         <v>1427</v>
       </c>
       <c r="B1427">
-        <v>151.7228767149785</v>
+        <v>151.7228767149784</v>
       </c>
     </row>
     <row r="1428" spans="1:2">
@@ -11807,7 +11807,7 @@
         <v>1433</v>
       </c>
       <c r="B1433">
-        <v>83.57096510051458</v>
+        <v>83.57096510051457</v>
       </c>
     </row>
     <row r="1434" spans="1:2">
@@ -11975,7 +11975,7 @@
         <v>1454</v>
       </c>
       <c r="B1454">
-        <v>43.28073098950748</v>
+        <v>43.28073098950747</v>
       </c>
     </row>
     <row r="1455" spans="1:2">
@@ -11999,7 +11999,7 @@
         <v>1457</v>
       </c>
       <c r="B1457">
-        <v>25.4609567831585</v>
+        <v>25.46095678315849</v>
       </c>
     </row>
     <row r="1458" spans="1:2">
@@ -12071,7 +12071,7 @@
         <v>1466</v>
       </c>
       <c r="B1466">
-        <v>262.0913783775705</v>
+        <v>262.0913783775704</v>
       </c>
     </row>
     <row r="1467" spans="1:2">
@@ -12311,7 +12311,7 @@
         <v>1496</v>
       </c>
       <c r="B1496">
-        <v>74.3764474045922</v>
+        <v>74.37644740459218</v>
       </c>
     </row>
     <row r="1497" spans="1:2">
@@ -12511,7 +12511,7 @@
         <v>1521</v>
       </c>
       <c r="B1521">
-        <v>15.61423879779916</v>
+        <v>15.61423879779915</v>
       </c>
     </row>
     <row r="1522" spans="1:2">
@@ -12639,7 +12639,7 @@
         <v>1537</v>
       </c>
       <c r="B1537">
-        <v>129.3808991536695</v>
+        <v>129.3808991536694</v>
       </c>
     </row>
     <row r="1538" spans="1:2">
@@ -12743,7 +12743,7 @@
         <v>1550</v>
       </c>
       <c r="B1550">
-        <v>13.21785552887307</v>
+        <v>13.21785552887306</v>
       </c>
     </row>
     <row r="1551" spans="1:2">
@@ -12751,7 +12751,7 @@
         <v>1551</v>
       </c>
       <c r="B1551">
-        <v>7.785109763896111</v>
+        <v>7.78510976389611</v>
       </c>
     </row>
     <row r="1552" spans="1:2">
@@ -12855,7 +12855,7 @@
         <v>1564</v>
       </c>
       <c r="B1564">
-        <v>207.0834097760293</v>
+        <v>207.0834097760292</v>
       </c>
     </row>
     <row r="1565" spans="1:2">
@@ -12959,7 +12959,7 @@
         <v>1577</v>
       </c>
       <c r="B1577">
-        <v>2.796223017682149</v>
+        <v>2.796223017682148</v>
       </c>
     </row>
     <row r="1578" spans="1:2">
@@ -12967,7 +12967,7 @@
         <v>1578</v>
       </c>
       <c r="B1578">
-        <v>2.252599686648446</v>
+        <v>2.252599686648445</v>
       </c>
     </row>
     <row r="1579" spans="1:2">
@@ -13047,7 +13047,7 @@
         <v>1588</v>
       </c>
       <c r="B1588">
-        <v>187.0417467971732</v>
+        <v>187.0417467971731</v>
       </c>
     </row>
     <row r="1589" spans="1:2">
@@ -13159,7 +13159,7 @@
         <v>1602</v>
       </c>
       <c r="B1602">
-        <v>10.29145328652794</v>
+        <v>10.29145328652793</v>
       </c>
     </row>
     <row r="1603" spans="1:2">
@@ -13263,7 +13263,7 @@
         <v>1615</v>
       </c>
       <c r="B1615">
-        <v>213.65552781801</v>
+        <v>213.6555278180099</v>
       </c>
     </row>
     <row r="1616" spans="1:2">
@@ -13295,7 +13295,7 @@
         <v>1619</v>
       </c>
       <c r="B1619">
-        <v>24.99532551693336</v>
+        <v>24.99532551693335</v>
       </c>
     </row>
     <row r="1620" spans="1:2">
@@ -13319,7 +13319,7 @@
         <v>1622</v>
       </c>
       <c r="B1622">
-        <v>8.482823985637175</v>
+        <v>8.482823985637173</v>
       </c>
     </row>
     <row r="1623" spans="1:2">
@@ -13455,7 +13455,7 @@
         <v>1639</v>
       </c>
       <c r="B1639">
-        <v>178.1452823475694</v>
+        <v>178.1452823475693</v>
       </c>
     </row>
     <row r="1640" spans="1:2">
@@ -13607,7 +13607,7 @@
         <v>1658</v>
       </c>
       <c r="B1658">
-        <v>99.26755686017758</v>
+        <v>99.26755686017756</v>
       </c>
     </row>
     <row r="1659" spans="1:2">
@@ -13783,7 +13783,7 @@
         <v>1680</v>
       </c>
       <c r="B1680">
-        <v>77.4311268405594</v>
+        <v>77.43112684055939</v>
       </c>
     </row>
     <row r="1681" spans="1:2">
@@ -13919,7 +13919,7 @@
         <v>1697</v>
       </c>
       <c r="B1697">
-        <v>0.207980207154333</v>
+        <v>0.2079802071543329</v>
       </c>
     </row>
     <row r="1698" spans="1:2">
@@ -13927,7 +13927,7 @@
         <v>1698</v>
       </c>
       <c r="B1698">
-        <v>0.5812272760043399</v>
+        <v>0.5812272760043398</v>
       </c>
     </row>
     <row r="1699" spans="1:2">
@@ -14023,7 +14023,7 @@
         <v>1710</v>
       </c>
       <c r="B1710">
-        <v>99.36427030293582</v>
+        <v>99.36427030293579</v>
       </c>
     </row>
     <row r="1711" spans="1:2">
@@ -14175,7 +14175,7 @@
         <v>1729</v>
       </c>
       <c r="B1729">
-        <v>62.69639422978294</v>
+        <v>62.69639422978293</v>
       </c>
     </row>
     <row r="1730" spans="1:2">
@@ -14183,7 +14183,7 @@
         <v>1730</v>
       </c>
       <c r="B1730">
-        <v>81.5124341249573</v>
+        <v>81.51243412495728</v>
       </c>
     </row>
     <row r="1731" spans="1:2">
@@ -14247,7 +14247,7 @@
         <v>1738</v>
       </c>
       <c r="B1738">
-        <v>8.743276217695513</v>
+        <v>8.743276217695511</v>
       </c>
     </row>
     <row r="1739" spans="1:2">
@@ -14255,7 +14255,7 @@
         <v>1739</v>
       </c>
       <c r="B1739">
-        <v>3.56002182793096</v>
+        <v>3.560021827930959</v>
       </c>
     </row>
     <row r="1740" spans="1:2">
@@ -14391,7 +14391,7 @@
         <v>1756</v>
       </c>
       <c r="B1756">
-        <v>151.3181456105872</v>
+        <v>151.3181456105871</v>
       </c>
     </row>
     <row r="1757" spans="1:2">
@@ -14415,7 +14415,7 @@
         <v>1759</v>
       </c>
       <c r="B1759">
-        <v>23.00185631195889</v>
+        <v>23.00185631195888</v>
       </c>
     </row>
     <row r="1760" spans="1:2">
@@ -14551,7 +14551,7 @@
         <v>1776</v>
       </c>
       <c r="B1776">
-        <v>53.47931006388363</v>
+        <v>53.47931006388362</v>
       </c>
     </row>
     <row r="1777" spans="1:2">
@@ -14607,7 +14607,7 @@
         <v>1783</v>
       </c>
       <c r="B1783">
-        <v>15.67739560663068</v>
+        <v>15.67739560663067</v>
       </c>
     </row>
     <row r="1784" spans="1:2">
@@ -14895,7 +14895,7 @@
         <v>1819</v>
       </c>
       <c r="B1819">
-        <v>20.39334822524972</v>
+        <v>20.39334822524971</v>
       </c>
     </row>
     <row r="1820" spans="1:2">
@@ -14911,7 +14911,7 @@
         <v>1821</v>
       </c>
       <c r="B1821">
-        <v>35.92054492456645</v>
+        <v>35.92054492456644</v>
       </c>
     </row>
     <row r="1822" spans="1:2">
@@ -14991,7 +14991,7 @@
         <v>1831</v>
       </c>
       <c r="B1831">
-        <v>58.9058134157371</v>
+        <v>58.90581341573709</v>
       </c>
     </row>
     <row r="1832" spans="1:2">
@@ -15087,7 +15087,7 @@
         <v>1843</v>
       </c>
       <c r="B1843">
-        <v>2.419307285570179</v>
+        <v>2.419307285570178</v>
       </c>
     </row>
     <row r="1844" spans="1:2">
@@ -15119,7 +15119,7 @@
         <v>1847</v>
       </c>
       <c r="B1847">
-        <v>42.73298121824942</v>
+        <v>42.73298121824941</v>
       </c>
     </row>
     <row r="1848" spans="1:2">
@@ -15183,7 +15183,7 @@
         <v>1855</v>
       </c>
       <c r="B1855">
-        <v>25.82914192902875</v>
+        <v>25.82914192902874</v>
       </c>
     </row>
     <row r="1856" spans="1:2">
@@ -15215,7 +15215,7 @@
         <v>1859</v>
       </c>
       <c r="B1859">
-        <v>20.44545625592371</v>
+        <v>20.4454562559237</v>
       </c>
     </row>
     <row r="1860" spans="1:2">
@@ -15239,7 +15239,7 @@
         <v>1862</v>
       </c>
       <c r="B1862">
-        <v>2.05394441380224</v>
+        <v>2.053944413802239</v>
       </c>
     </row>
     <row r="1863" spans="1:2">
@@ -15327,7 +15327,7 @@
         <v>1873</v>
       </c>
       <c r="B1873">
-        <v>53.18858359353158</v>
+        <v>53.18858359353157</v>
       </c>
     </row>
     <row r="1874" spans="1:2">
@@ -15359,7 +15359,7 @@
         <v>1877</v>
       </c>
       <c r="B1877">
-        <v>97.49389093419911</v>
+        <v>97.4938909341991</v>
       </c>
     </row>
     <row r="1878" spans="1:2">
@@ -15439,7 +15439,7 @@
         <v>1887</v>
       </c>
       <c r="B1887">
-        <v>1.75689640114626</v>
+        <v>1.756896401146259</v>
       </c>
     </row>
     <row r="1888" spans="1:2">
@@ -15623,7 +15623,7 @@
         <v>1910</v>
       </c>
       <c r="B1910">
-        <v>8.368145288208991</v>
+        <v>8.368145288208989</v>
       </c>
     </row>
     <row r="1911" spans="1:2">
@@ -15655,7 +15655,7 @@
         <v>1914</v>
       </c>
       <c r="B1914">
-        <v>7.109756862404907</v>
+        <v>7.109756862404906</v>
       </c>
     </row>
     <row r="1915" spans="1:2">
@@ -15695,7 +15695,7 @@
         <v>1919</v>
       </c>
       <c r="B1919">
-        <v>79.51222428609361</v>
+        <v>79.5122242860936</v>
       </c>
     </row>
     <row r="1920" spans="1:2">
@@ -15887,7 +15887,7 @@
         <v>1943</v>
       </c>
       <c r="B1943">
-        <v>56.14156737908329</v>
+        <v>56.14156737908328</v>
       </c>
     </row>
     <row r="1944" spans="1:2">
@@ -15999,7 +15999,7 @@
         <v>1957</v>
       </c>
       <c r="B1957">
-        <v>20.34783429294561</v>
+        <v>20.3478342929456</v>
       </c>
     </row>
     <row r="1958" spans="1:2">
@@ -16023,7 +16023,7 @@
         <v>1960</v>
       </c>
       <c r="B1960">
-        <v>0.9673747458341418</v>
+        <v>0.9673747458341416</v>
       </c>
     </row>
     <row r="1961" spans="1:2">
@@ -16079,7 +16079,7 @@
         <v>1967</v>
       </c>
       <c r="B1967">
-        <v>37.63530357177398</v>
+        <v>37.63530357177397</v>
       </c>
     </row>
     <row r="1968" spans="1:2">
@@ -16143,7 +16143,7 @@
         <v>1975</v>
       </c>
       <c r="B1975">
-        <v>33.18208913931484</v>
+        <v>33.18208913931483</v>
       </c>
     </row>
     <row r="1976" spans="1:2">
@@ -16175,7 +16175,7 @@
         <v>1979</v>
       </c>
       <c r="B1979">
-        <v>38.00457308048728</v>
+        <v>38.00457308048727</v>
       </c>
     </row>
     <row r="1980" spans="1:2">
@@ -16199,7 +16199,7 @@
         <v>1982</v>
       </c>
       <c r="B1982">
-        <v>3.367649998153653</v>
+        <v>3.367649998153652</v>
       </c>
     </row>
     <row r="1983" spans="1:2">
@@ -16247,7 +16247,7 @@
         <v>1988</v>
       </c>
       <c r="B1988">
-        <v>1.323221600976748</v>
+        <v>1.323221600976747</v>
       </c>
     </row>
     <row r="1989" spans="1:2">
@@ -16263,7 +16263,7 @@
         <v>1990</v>
       </c>
       <c r="B1990">
-        <v>2.370223748015177</v>
+        <v>2.370223748015176</v>
       </c>
     </row>
     <row r="1991" spans="1:2">
@@ -16303,7 +16303,7 @@
         <v>1995</v>
       </c>
       <c r="B1995">
-        <v>53.47901699284497</v>
+        <v>53.47901699284496</v>
       </c>
     </row>
     <row r="1996" spans="1:2">
@@ -16327,7 +16327,7 @@
         <v>1998</v>
       </c>
       <c r="B1998">
-        <v>73.61475577511136</v>
+        <v>73.61475577511135</v>
       </c>
     </row>
     <row r="1999" spans="1:2">
@@ -16647,7 +16647,7 @@
         <v>2038</v>
       </c>
       <c r="B2038">
-        <v>1.937697786317217</v>
+        <v>1.937697786317216</v>
       </c>
     </row>
     <row r="2039" spans="1:2">
@@ -16655,7 +16655,7 @@
         <v>2039</v>
       </c>
       <c r="B2039">
-        <v>8.891804620089083</v>
+        <v>8.891804620089081</v>
       </c>
     </row>
     <row r="2040" spans="1:2">
@@ -16687,7 +16687,7 @@
         <v>2043</v>
       </c>
       <c r="B2043">
-        <v>57.59138980734097</v>
+        <v>57.59138980734096</v>
       </c>
     </row>
     <row r="2044" spans="1:2">
@@ -16711,7 +16711,7 @@
         <v>2046</v>
       </c>
       <c r="B2046">
-        <v>63.85549018768856</v>
+        <v>63.85549018768855</v>
       </c>
     </row>
     <row r="2047" spans="1:2">
@@ -16719,7 +16719,7 @@
         <v>2047</v>
       </c>
       <c r="B2047">
-        <v>1.966697165592757</v>
+        <v>1.966697165592756</v>
       </c>
     </row>
     <row r="2048" spans="1:2">
@@ -16959,7 +16959,7 @@
         <v>2077</v>
       </c>
       <c r="B2077">
-        <v>2.290341375007254</v>
+        <v>2.290341375007253</v>
       </c>
     </row>
     <row r="2078" spans="1:2">
@@ -17135,7 +17135,7 @@
         <v>2099</v>
       </c>
       <c r="B2099">
-        <v>46.93444762849847</v>
+        <v>46.93444762849846</v>
       </c>
     </row>
     <row r="2100" spans="1:2">
@@ -17183,7 +17183,7 @@
         <v>2105</v>
       </c>
       <c r="B2105">
-        <v>3.311409665834541</v>
+        <v>3.31140966583454</v>
       </c>
     </row>
     <row r="2106" spans="1:2">
@@ -17223,7 +17223,7 @@
         <v>2110</v>
       </c>
       <c r="B2110">
-        <v>60.930934292887</v>
+        <v>60.93093429288699</v>
       </c>
     </row>
     <row r="2111" spans="1:2">
@@ -17295,7 +17295,7 @@
         <v>2119</v>
       </c>
       <c r="B2119">
-        <v>34.61110352382756</v>
+        <v>34.61110352382755</v>
       </c>
     </row>
     <row r="2120" spans="1:2">
@@ -17399,7 +17399,7 @@
         <v>2132</v>
       </c>
       <c r="B2132">
-        <v>2.095868225882745</v>
+        <v>2.095868225882744</v>
       </c>
     </row>
     <row r="2133" spans="1:2">
@@ -17431,7 +17431,7 @@
         <v>2136</v>
       </c>
       <c r="B2136">
-        <v>73.77301413598849</v>
+        <v>73.77301413598848</v>
       </c>
     </row>
     <row r="2137" spans="1:2">
@@ -17583,7 +17583,7 @@
         <v>2155</v>
       </c>
       <c r="B2155">
-        <v>0.4623342170402053</v>
+        <v>0.4623342170402052</v>
       </c>
     </row>
     <row r="2156" spans="1:2">
@@ -17623,7 +17623,7 @@
         <v>2160</v>
       </c>
       <c r="B2160">
-        <v>51.45360304465641</v>
+        <v>51.4536030446564</v>
       </c>
     </row>
     <row r="2161" spans="1:2">
@@ -17839,7 +17839,7 @@
         <v>2187</v>
       </c>
       <c r="B2187">
-        <v>110.6987927231634</v>
+        <v>110.6987927231633</v>
       </c>
     </row>
     <row r="2188" spans="1:2">
@@ -17911,7 +17911,7 @@
         <v>2196</v>
       </c>
       <c r="B2196">
-        <v>5.732586744631379</v>
+        <v>5.732586744631378</v>
       </c>
     </row>
     <row r="2197" spans="1:2">
@@ -17983,7 +17983,7 @@
         <v>2205</v>
       </c>
       <c r="B2205">
-        <v>6.512536699820817</v>
+        <v>6.512536699820816</v>
       </c>
     </row>
     <row r="2206" spans="1:2">
@@ -17999,7 +17999,7 @@
         <v>2207</v>
       </c>
       <c r="B2207">
-        <v>48.07566625304575</v>
+        <v>48.07566625304574</v>
       </c>
     </row>
     <row r="2208" spans="1:2">
@@ -18247,7 +18247,7 @@
         <v>2238</v>
       </c>
       <c r="B2238">
-        <v>190.5248960916633</v>
+        <v>190.5248960916632</v>
       </c>
     </row>
     <row r="2239" spans="1:2">
@@ -18271,7 +18271,7 @@
         <v>2241</v>
       </c>
       <c r="B2241">
-        <v>29.21803957748535</v>
+        <v>29.21803957748534</v>
       </c>
     </row>
     <row r="2242" spans="1:2">
@@ -18343,7 +18343,7 @@
         <v>2250</v>
       </c>
       <c r="B2250">
-        <v>4.774742668974504</v>
+        <v>4.774742668974503</v>
       </c>
     </row>
     <row r="2251" spans="1:2">
@@ -18375,7 +18375,7 @@
         <v>2254</v>
       </c>
       <c r="B2254">
-        <v>50.62333279212882</v>
+        <v>50.62333279212881</v>
       </c>
     </row>
     <row r="2255" spans="1:2">
@@ -18463,7 +18463,7 @@
         <v>2265</v>
       </c>
       <c r="B2265">
-        <v>56.16178928075093</v>
+        <v>56.16178928075092</v>
       </c>
     </row>
     <row r="2266" spans="1:2">
@@ -18743,7 +18743,7 @@
         <v>2300</v>
       </c>
       <c r="B2300">
-        <v>7.865352614281587</v>
+        <v>7.865352614281586</v>
       </c>
     </row>
     <row r="2301" spans="1:2">
@@ -18831,7 +18831,7 @@
         <v>2311</v>
       </c>
       <c r="B2311">
-        <v>6.447914535795991</v>
+        <v>6.44791453579599</v>
       </c>
     </row>
     <row r="2312" spans="1:2">
@@ -18847,7 +18847,7 @@
         <v>2313</v>
       </c>
       <c r="B2313">
-        <v>6.908123987805901</v>
+        <v>6.9081239878059</v>
       </c>
     </row>
     <row r="2314" spans="1:2">
@@ -19151,7 +19151,7 @@
         <v>2351</v>
       </c>
       <c r="B2351">
-        <v>6.861115393204621</v>
+        <v>6.86111539320462</v>
       </c>
     </row>
     <row r="2352" spans="1:2">
@@ -19567,7 +19567,7 @@
         <v>2403</v>
       </c>
       <c r="B2403">
-        <v>80.60508618926177</v>
+        <v>80.60508618926175</v>
       </c>
     </row>
     <row r="2404" spans="1:2">
@@ -19647,7 +19647,7 @@
         <v>2413</v>
       </c>
       <c r="B2413">
-        <v>3.393586785075182</v>
+        <v>3.393586785075181</v>
       </c>
     </row>
     <row r="2414" spans="1:2">
@@ -19711,7 +19711,7 @@
         <v>2421</v>
       </c>
       <c r="B2421">
-        <v>0.0928607308840019</v>
+        <v>0.0928607308840018</v>
       </c>
     </row>
     <row r="2422" spans="1:2">
@@ -19783,7 +19783,7 @@
         <v>2430</v>
       </c>
       <c r="B2430">
-        <v>139.6861560861184</v>
+        <v>139.6861560861183</v>
       </c>
     </row>
     <row r="2431" spans="1:2">
@@ -19991,7 +19991,7 @@
         <v>2456</v>
       </c>
       <c r="B2456">
-        <v>7.481283018115894</v>
+        <v>7.481283018115893</v>
       </c>
     </row>
     <row r="2457" spans="1:2">
@@ -20119,7 +20119,7 @@
         <v>2472</v>
       </c>
       <c r="B2472">
-        <v>8.397921305736984</v>
+        <v>8.397921305736983</v>
       </c>
     </row>
     <row r="2473" spans="1:2">
@@ -20335,7 +20335,7 @@
         <v>2499</v>
       </c>
       <c r="B2499">
-        <v>44.32054703467793</v>
+        <v>44.32054703467792</v>
       </c>
     </row>
     <row r="2500" spans="1:2">
@@ -21095,7 +21095,7 @@
         <v>2594</v>
       </c>
       <c r="B2594">
-        <v>2.837982709981004</v>
+        <v>2.837982709981003</v>
       </c>
     </row>
     <row r="2595" spans="1:2">
@@ -21103,7 +21103,7 @@
         <v>2595</v>
       </c>
       <c r="B2595">
-        <v>8.65019685581667</v>
+        <v>8.650196855816668</v>
       </c>
     </row>
     <row r="2596" spans="1:2">
@@ -21287,7 +21287,7 @@
         <v>2618</v>
       </c>
       <c r="B2618">
-        <v>41.6990265938522</v>
+        <v>41.69902659385219</v>
       </c>
     </row>
     <row r="2619" spans="1:2">
@@ -21503,7 +21503,7 @@
         <v>2645</v>
       </c>
       <c r="B2645">
-        <v>135.4744321895162</v>
+        <v>135.4744321895161</v>
       </c>
     </row>
     <row r="2646" spans="1:2">
@@ -21647,7 +21647,7 @@
         <v>2663</v>
       </c>
       <c r="B2663">
-        <v>8.68416378919752</v>
+        <v>8.684163789197518</v>
       </c>
     </row>
     <row r="2664" spans="1:2">
@@ -21655,7 +21655,7 @@
         <v>2664</v>
       </c>
       <c r="B2664">
-        <v>28.38513168560981</v>
+        <v>28.3851316856098</v>
       </c>
     </row>
     <row r="2665" spans="1:2">
@@ -21935,7 +21935,7 @@
         <v>2699</v>
       </c>
       <c r="B2699">
-        <v>2.490382873866329</v>
+        <v>2.490382873866328</v>
       </c>
     </row>
     <row r="2700" spans="1:2">
@@ -22055,7 +22055,7 @@
         <v>2714</v>
       </c>
       <c r="B2714">
-        <v>1.887277844825919</v>
+        <v>1.887277844825918</v>
       </c>
     </row>
     <row r="2715" spans="1:2">
@@ -22255,7 +22255,7 @@
         <v>2739</v>
       </c>
       <c r="B2739">
-        <v>0.8360144448853536</v>
+        <v>0.8360144448853535</v>
       </c>
     </row>
     <row r="2740" spans="1:2">
@@ -22263,7 +22263,7 @@
         <v>2740</v>
       </c>
       <c r="B2740">
-        <v>2.027483029721507</v>
+        <v>2.027483029721506</v>
       </c>
     </row>
     <row r="2741" spans="1:2">
@@ -22871,7 +22871,7 @@
         <v>2816</v>
       </c>
       <c r="B2816">
-        <v>0.6080637910145593</v>
+        <v>0.6080637910145592</v>
       </c>
     </row>
     <row r="2817" spans="1:2">
@@ -23063,7 +23063,7 @@
         <v>2840</v>
       </c>
       <c r="B2840">
-        <v>7.900374603401618</v>
+        <v>7.900374603401617</v>
       </c>
     </row>
     <row r="2841" spans="1:2">
@@ -23239,7 +23239,7 @@
         <v>2862</v>
       </c>
       <c r="B2862">
-        <v>130.0989231983898</v>
+        <v>130.0989231983897</v>
       </c>
     </row>
     <row r="2863" spans="1:2">
@@ -23455,7 +23455,7 @@
         <v>2889</v>
       </c>
       <c r="B2889">
-        <v>6.067742784444493</v>
+        <v>6.067742784444492</v>
       </c>
     </row>
     <row r="2890" spans="1:2">
@@ -23591,7 +23591,7 @@
         <v>2906</v>
       </c>
       <c r="B2906">
-        <v>54.66126556280484</v>
+        <v>54.66126556280483</v>
       </c>
     </row>
     <row r="2907" spans="1:2">
@@ -23983,7 +23983,7 @@
         <v>2955</v>
       </c>
       <c r="B2955">
-        <v>0.8854438062659762</v>
+        <v>0.8854438062659761</v>
       </c>
     </row>
     <row r="2956" spans="1:2">
@@ -25135,7 +25135,7 @@
         <v>3099</v>
       </c>
       <c r="B3099">
-        <v>25.34991216660972</v>
+        <v>25.34991216660971</v>
       </c>
     </row>
     <row r="3100" spans="1:2">
@@ -25143,7 +25143,7 @@
         <v>3100</v>
       </c>
       <c r="B3100">
-        <v>38.16253837032574</v>
+        <v>38.16253837032573</v>
       </c>
     </row>
     <row r="3101" spans="1:2">
@@ -25303,7 +25303,7 @@
         <v>3120</v>
       </c>
       <c r="B3120">
-        <v>0.1311443075932948</v>
+        <v>0.1311443075932947</v>
       </c>
     </row>
     <row r="3121" spans="1:2">
@@ -25319,7 +25319,7 @@
         <v>3122</v>
       </c>
       <c r="B3122">
-        <v>6.857217548390425</v>
+        <v>6.857217548390424</v>
       </c>
     </row>
     <row r="3123" spans="1:2">
@@ -25503,7 +25503,7 @@
         <v>3145</v>
       </c>
       <c r="B3145">
-        <v>6.105431720016342</v>
+        <v>6.105431720016341</v>
       </c>
     </row>
     <row r="3146" spans="1:2">
@@ -25519,7 +25519,7 @@
         <v>3147</v>
       </c>
       <c r="B3147">
-        <v>45.07168810676696</v>
+        <v>45.07168810676695</v>
       </c>
     </row>
     <row r="3148" spans="1:2">
@@ -25527,7 +25527,7 @@
         <v>3148</v>
       </c>
       <c r="B3148">
-        <v>59.82781490336569</v>
+        <v>59.82781490336568</v>
       </c>
     </row>
     <row r="3149" spans="1:2">
@@ -25735,7 +25735,7 @@
         <v>3174</v>
       </c>
       <c r="B3174">
-        <v>72.78419245154511</v>
+        <v>72.7841924515451</v>
       </c>
     </row>
     <row r="3175" spans="1:2">
@@ -25767,7 +25767,7 @@
         <v>3178</v>
       </c>
       <c r="B3178">
-        <v>0.4293285566661646</v>
+        <v>0.4293285566661645</v>
       </c>
     </row>
     <row r="3179" spans="1:2">
@@ -27271,7 +27271,7 @@
         <v>3366</v>
       </c>
       <c r="B3366">
-        <v>3.461051738175024</v>
+        <v>3.461051738175023</v>
       </c>
     </row>
     <row r="3367" spans="1:2">
@@ -27839,7 +27839,7 @@
         <v>3437</v>
       </c>
       <c r="B3437">
-        <v>74.88844250913357</v>
+        <v>74.88844250913355</v>
       </c>
     </row>
     <row r="3438" spans="1:2">
@@ -28055,7 +28055,7 @@
         <v>3464</v>
       </c>
       <c r="B3464">
-        <v>6.870522973545651</v>
+        <v>6.87052297354565</v>
       </c>
     </row>
     <row r="3465" spans="1:2">
@@ -50671,7 +50671,7 @@
         <v>6291</v>
       </c>
       <c r="B6291">
-        <v>7.366516399376111</v>
+        <v>7.36651639937611</v>
       </c>
     </row>
     <row r="6292" spans="1:2">
@@ -50911,7 +50911,7 @@
         <v>6321</v>
       </c>
       <c r="B6321">
-        <v>6.646235707658123</v>
+        <v>6.646235707658122</v>
       </c>
     </row>
     <row r="6322" spans="1:2">
@@ -51479,7 +51479,7 @@
         <v>6392</v>
       </c>
       <c r="B6392">
-        <v>1.44427166278543</v>
+        <v>1.444271662785429</v>
       </c>
     </row>
     <row r="6393" spans="1:2">
@@ -52839,7 +52839,7 @@
         <v>6562</v>
       </c>
       <c r="B6562">
-        <v>0.57828484277618</v>
+        <v>0.5782848427761799</v>
       </c>
     </row>
     <row r="6563" spans="1:2">
@@ -52975,7 +52975,7 @@
         <v>6579</v>
       </c>
       <c r="B6579">
-        <v>47.00331932258389</v>
+        <v>47.00331932258388</v>
       </c>
     </row>
     <row r="6580" spans="1:2">
@@ -52983,7 +52983,7 @@
         <v>6580</v>
       </c>
       <c r="B6580">
-        <v>61.40219252305444</v>
+        <v>61.40219252305443</v>
       </c>
     </row>
     <row r="6581" spans="1:2">
@@ -53159,7 +53159,7 @@
         <v>6602</v>
       </c>
       <c r="B6602">
-        <v>71.05683174967514</v>
+        <v>71.05683174967513</v>
       </c>
     </row>
     <row r="6603" spans="1:2">
@@ -53391,7 +53391,7 @@
         <v>6631</v>
       </c>
       <c r="B6631">
-        <v>9.760643021304508</v>
+        <v>9.760643021304505</v>
       </c>
     </row>
     <row r="6632" spans="1:2">
@@ -53559,7 +53559,7 @@
         <v>6652</v>
       </c>
       <c r="B6652">
-        <v>18.54647315381365</v>
+        <v>18.54647315381364</v>
       </c>
     </row>
     <row r="6653" spans="1:2">
@@ -53567,7 +53567,7 @@
         <v>6653</v>
       </c>
       <c r="B6653">
-        <v>22.32184358095297</v>
+        <v>22.32184358095296</v>
       </c>
     </row>
     <row r="6654" spans="1:2">
@@ -53783,7 +53783,7 @@
         <v>6680</v>
       </c>
       <c r="B6680">
-        <v>0.4205276333751644</v>
+        <v>0.4205276333751643</v>
       </c>
     </row>
     <row r="6681" spans="1:2">
@@ -54487,7 +54487,7 @@
         <v>6768</v>
       </c>
       <c r="B6768">
-        <v>0.170969731036985</v>
+        <v>0.1709697310369849</v>
       </c>
     </row>
     <row r="6769" spans="1:2">
@@ -54543,7 +54543,7 @@
         <v>6775</v>
       </c>
       <c r="B6775">
-        <v>4.975203259418864</v>
+        <v>4.975203259418863</v>
       </c>
     </row>
     <row r="6776" spans="1:2">
@@ -54783,7 +54783,7 @@
         <v>6805</v>
       </c>
       <c r="B6805">
-        <v>0.3945996385847952</v>
+        <v>0.3945996385847951</v>
       </c>
     </row>
     <row r="6806" spans="1:2">
@@ -54975,7 +54975,7 @@
         <v>6829</v>
       </c>
       <c r="B6829">
-        <v>2.603772058724403</v>
+        <v>2.603772058724402</v>
       </c>
     </row>
     <row r="6830" spans="1:2">
@@ -55255,7 +55255,7 @@
         <v>6864</v>
       </c>
       <c r="B6864">
-        <v>46.36354524518617</v>
+        <v>46.36354524518616</v>
       </c>
     </row>
     <row r="6865" spans="1:2">
@@ -55319,7 +55319,7 @@
         <v>6872</v>
       </c>
       <c r="B6872">
-        <v>26.43093399981596</v>
+        <v>26.43093399981595</v>
       </c>
     </row>
     <row r="6873" spans="1:2">
@@ -55383,7 +55383,7 @@
         <v>6880</v>
       </c>
       <c r="B6880">
-        <v>0.8323364033501538</v>
+        <v>0.8323364033501537</v>
       </c>
     </row>
     <row r="6881" spans="1:2">
@@ -55439,7 +55439,7 @@
         <v>6887</v>
       </c>
       <c r="B6887">
-        <v>45.15873020524938</v>
+        <v>45.15873020524937</v>
       </c>
     </row>
     <row r="6888" spans="1:2">
@@ -55511,7 +55511,7 @@
         <v>6896</v>
       </c>
       <c r="B6896">
-        <v>27.51948775871579</v>
+        <v>27.51948775871578</v>
       </c>
     </row>
     <row r="6897" spans="1:2">
@@ -55543,7 +55543,7 @@
         <v>6900</v>
       </c>
       <c r="B6900">
-        <v>5.758289074721978</v>
+        <v>5.758289074721977</v>
       </c>
     </row>
     <row r="6901" spans="1:2">
@@ -55631,7 +55631,7 @@
         <v>6911</v>
       </c>
       <c r="B6911">
-        <v>3.434499502072306</v>
+        <v>3.434499502072305</v>
       </c>
     </row>
     <row r="6912" spans="1:2">
@@ -55687,7 +55687,7 @@
         <v>6918</v>
       </c>
       <c r="B6918">
-        <v>122.0857748593113</v>
+        <v>122.0857748593112</v>
       </c>
     </row>
     <row r="6919" spans="1:2">
@@ -55727,7 +55727,7 @@
         <v>6923</v>
       </c>
       <c r="B6923">
-        <v>6.551544455066642</v>
+        <v>6.551544455066641</v>
       </c>
     </row>
     <row r="6924" spans="1:2">
@@ -55847,7 +55847,7 @@
         <v>6938</v>
       </c>
       <c r="B6938">
-        <v>69.93554195575683</v>
+        <v>69.93554195575682</v>
       </c>
     </row>
     <row r="6939" spans="1:2">
@@ -56095,7 +56095,7 @@
         <v>6969</v>
       </c>
       <c r="B6969">
-        <v>5.215462896913436</v>
+        <v>5.215462896913435</v>
       </c>
     </row>
     <row r="6970" spans="1:2">
@@ -56447,7 +56447,7 @@
         <v>7013</v>
       </c>
       <c r="B7013">
-        <v>6.147018500402387</v>
+        <v>6.147018500402386</v>
       </c>
     </row>
     <row r="7014" spans="1:2">
@@ -56647,7 +56647,7 @@
         <v>7038</v>
       </c>
       <c r="B7038">
-        <v>5.548450211040455</v>
+        <v>5.548450211040454</v>
       </c>
     </row>
     <row r="7039" spans="1:2">
@@ -57559,7 +57559,7 @@
         <v>7152</v>
       </c>
       <c r="B7152">
-        <v>0.7272645745692883</v>
+        <v>0.7272645745692882</v>
       </c>
     </row>
     <row r="7153" spans="1:2">
@@ -57567,7 +57567,7 @@
         <v>7153</v>
       </c>
       <c r="B7153">
-        <v>13.06654295161222</v>
+        <v>13.06654295161221</v>
       </c>
     </row>
     <row r="7154" spans="1:2">
@@ -57575,7 +57575,7 @@
         <v>7154</v>
       </c>
       <c r="B7154">
-        <v>53.12996938579931</v>
+        <v>53.1299693857993</v>
       </c>
     </row>
     <row r="7155" spans="1:2">
@@ -57607,7 +57607,7 @@
         <v>7158</v>
       </c>
       <c r="B7158">
-        <v>143.3132032605912</v>
+        <v>143.3132032605911</v>
       </c>
     </row>
     <row r="7159" spans="1:2">
@@ -57727,7 +57727,7 @@
         <v>7173</v>
       </c>
       <c r="B7173">
-        <v>0.2052561118499758</v>
+        <v>0.2052561118499757</v>
       </c>
     </row>
     <row r="7174" spans="1:2">
@@ -57751,7 +57751,7 @@
         <v>7176</v>
       </c>
       <c r="B7176">
-        <v>64.72298046212615</v>
+        <v>64.72298046212613</v>
       </c>
     </row>
     <row r="7177" spans="1:2">
@@ -57807,7 +57807,7 @@
         <v>7183</v>
       </c>
       <c r="B7183">
-        <v>41.41855760985329</v>
+        <v>41.41855760985328</v>
       </c>
     </row>
     <row r="7184" spans="1:2">
@@ -57935,7 +57935,7 @@
         <v>7199</v>
       </c>
       <c r="B7199">
-        <v>0.6832394431415809</v>
+        <v>0.6832394431415808</v>
       </c>
     </row>
     <row r="7200" spans="1:2">
@@ -58343,7 +58343,7 @@
         <v>7250</v>
       </c>
       <c r="B7250">
-        <v>94.76246885387538</v>
+        <v>94.76246885387536</v>
       </c>
     </row>
     <row r="7251" spans="1:2">
@@ -58375,7 +58375,7 @@
         <v>7254</v>
       </c>
       <c r="B7254">
-        <v>152.3726152076907</v>
+        <v>152.3726152076906</v>
       </c>
     </row>
     <row r="7255" spans="1:2">
@@ -58463,7 +58463,7 @@
         <v>7265</v>
       </c>
       <c r="B7265">
-        <v>0.2018532640200789</v>
+        <v>0.2018532640200788</v>
       </c>
     </row>
     <row r="7266" spans="1:2">
@@ -58479,7 +58479,7 @@
         <v>7267</v>
       </c>
       <c r="B7267">
-        <v>2.046526785813721</v>
+        <v>2.04652678581372</v>
       </c>
     </row>
     <row r="7268" spans="1:2">
@@ -58519,7 +58519,7 @@
         <v>7272</v>
       </c>
       <c r="B7272">
-        <v>86.81907142199827</v>
+        <v>86.81907142199826</v>
       </c>
     </row>
     <row r="7273" spans="1:2">
@@ -58591,7 +58591,7 @@
         <v>7281</v>
       </c>
       <c r="B7281">
-        <v>42.07591594957069</v>
+        <v>42.07591594957068</v>
       </c>
     </row>
     <row r="7282" spans="1:2">
@@ -58695,7 +58695,7 @@
         <v>7294</v>
       </c>
       <c r="B7294">
-        <v>2.754375404071695</v>
+        <v>2.754375404071694</v>
       </c>
     </row>
     <row r="7295" spans="1:2">
@@ -58975,7 +58975,7 @@
         <v>7329</v>
       </c>
       <c r="B7329">
-        <v>55.98858429690207</v>
+        <v>55.98858429690206</v>
       </c>
     </row>
     <row r="7330" spans="1:2">
@@ -59063,7 +59063,7 @@
         <v>7340</v>
       </c>
       <c r="B7340">
-        <v>6.408701630823103</v>
+        <v>6.408701630823102</v>
       </c>
     </row>
     <row r="7341" spans="1:2">
@@ -59151,7 +59151,7 @@
         <v>7351</v>
       </c>
       <c r="B7351">
-        <v>70.19842667743606</v>
+        <v>70.19842667743605</v>
       </c>
     </row>
     <row r="7352" spans="1:2">
@@ -59391,7 +59391,7 @@
         <v>7381</v>
       </c>
       <c r="B7381">
-        <v>1.323051619774324</v>
+        <v>1.323051619774323</v>
       </c>
     </row>
     <row r="7382" spans="1:2">
@@ -59479,7 +59479,7 @@
         <v>7392</v>
       </c>
       <c r="B7392">
-        <v>49.70338280177086</v>
+        <v>49.70338280177085</v>
       </c>
     </row>
     <row r="7393" spans="1:2">
@@ -59743,7 +59743,7 @@
         <v>7425</v>
       </c>
       <c r="B7425">
-        <v>7.311975879081235</v>
+        <v>7.311975879081234</v>
       </c>
     </row>
     <row r="7426" spans="1:2">
@@ -59951,7 +59951,7 @@
         <v>7451</v>
       </c>
       <c r="B7451">
-        <v>0.6067361792094234</v>
+        <v>0.6067361792094232</v>
       </c>
     </row>
     <row r="7452" spans="1:2">
@@ -60311,7 +60311,7 @@
         <v>7496</v>
       </c>
       <c r="B7496">
-        <v>49.90999788402711</v>
+        <v>49.9099978840271</v>
       </c>
     </row>
     <row r="7497" spans="1:2">
@@ -60367,7 +60367,7 @@
         <v>7503</v>
       </c>
       <c r="B7503">
-        <v>73.37766130483433</v>
+        <v>73.37766130483432</v>
       </c>
     </row>
     <row r="7504" spans="1:2">
@@ -60375,7 +60375,7 @@
         <v>7504</v>
       </c>
       <c r="B7504">
-        <v>64.4685948005681</v>
+        <v>64.46859480056808</v>
       </c>
     </row>
     <row r="7505" spans="1:2">
@@ -60519,7 +60519,7 @@
         <v>7522</v>
       </c>
       <c r="B7522">
-        <v>72.65641347868876</v>
+        <v>72.65641347868875</v>
       </c>
     </row>
     <row r="7523" spans="1:2">
@@ -60527,7 +60527,7 @@
         <v>7523</v>
       </c>
       <c r="B7523">
-        <v>97.27467379728044</v>
+        <v>97.2746737972804</v>
       </c>
     </row>
     <row r="7524" spans="1:2">
@@ -60543,7 +60543,7 @@
         <v>7525</v>
       </c>
       <c r="B7525">
-        <v>41.98682235381764</v>
+        <v>41.98682235381763</v>
       </c>
     </row>
     <row r="7526" spans="1:2">
@@ -60591,7 +60591,7 @@
         <v>7531</v>
       </c>
       <c r="B7531">
-        <v>162.803013473648</v>
+        <v>162.8030134736479</v>
       </c>
     </row>
     <row r="7532" spans="1:2">
@@ -60655,7 +60655,7 @@
         <v>7539</v>
       </c>
       <c r="B7539">
-        <v>237.6826638516217</v>
+        <v>237.6826638516216</v>
       </c>
     </row>
     <row r="7540" spans="1:2">
@@ -60687,7 +60687,7 @@
         <v>7543</v>
       </c>
       <c r="B7543">
-        <v>267.2113294229842</v>
+        <v>267.2113294229841</v>
       </c>
     </row>
     <row r="7544" spans="1:2">
@@ -60711,7 +60711,7 @@
         <v>7546</v>
       </c>
       <c r="B7546">
-        <v>59.27537599548906</v>
+        <v>59.27537599548905</v>
       </c>
     </row>
     <row r="7547" spans="1:2">
@@ -60751,7 +60751,7 @@
         <v>7551</v>
       </c>
       <c r="B7551">
-        <v>6.979223021785143</v>
+        <v>6.979223021785142</v>
       </c>
     </row>
     <row r="7552" spans="1:2">
@@ -60783,7 +60783,7 @@
         <v>7555</v>
       </c>
       <c r="B7555">
-        <v>45.0895654401253</v>
+        <v>45.08956544012529</v>
       </c>
     </row>
     <row r="7556" spans="1:2">
@@ -60847,7 +60847,7 @@
         <v>7563</v>
       </c>
       <c r="B7563">
-        <v>205.0418769207144</v>
+        <v>205.0418769207143</v>
       </c>
     </row>
     <row r="7564" spans="1:2">
@@ -60855,7 +60855,7 @@
         <v>7564</v>
       </c>
       <c r="B7564">
-        <v>223.8945506957214</v>
+        <v>223.8945506957213</v>
       </c>
     </row>
     <row r="7565" spans="1:2">
@@ -60863,7 +60863,7 @@
         <v>7565</v>
       </c>
       <c r="B7565">
-        <v>236.1490231063069</v>
+        <v>236.1490231063068</v>
       </c>
     </row>
     <row r="7566" spans="1:2">
@@ -60911,7 +60911,7 @@
         <v>7571</v>
       </c>
       <c r="B7571">
-        <v>35.61487183124267</v>
+        <v>35.61487183124266</v>
       </c>
     </row>
     <row r="7572" spans="1:2">
@@ -61079,7 +61079,7 @@
         <v>7592</v>
       </c>
       <c r="B7592">
-        <v>32.17304555320383</v>
+        <v>32.17304555320382</v>
       </c>
     </row>
     <row r="7593" spans="1:2">
@@ -61127,7 +61127,7 @@
         <v>7598</v>
       </c>
       <c r="B7598">
-        <v>26.23777087823426</v>
+        <v>26.23777087823425</v>
       </c>
     </row>
     <row r="7599" spans="1:2">
@@ -61303,7 +61303,7 @@
         <v>7620</v>
       </c>
       <c r="B7620">
-        <v>122.9394907949318</v>
+        <v>122.9394907949317</v>
       </c>
     </row>
     <row r="7621" spans="1:2">
@@ -61319,7 +61319,7 @@
         <v>7622</v>
       </c>
       <c r="B7622">
-        <v>44.169908520806</v>
+        <v>44.16990852080599</v>
       </c>
     </row>
     <row r="7623" spans="1:2">
@@ -61375,7 +61375,7 @@
         <v>7629</v>
       </c>
       <c r="B7629">
-        <v>83.9962111776122</v>
+        <v>83.99621117761218</v>
       </c>
     </row>
     <row r="7630" spans="1:2">
@@ -61439,7 +61439,7 @@
         <v>7637</v>
       </c>
       <c r="B7637">
-        <v>243.8878569531984</v>
+        <v>243.8878569531983</v>
       </c>
     </row>
     <row r="7638" spans="1:2">
@@ -61519,7 +61519,7 @@
         <v>7647</v>
       </c>
       <c r="B7647">
-        <v>8.292298503403435</v>
+        <v>8.292298503403433</v>
       </c>
     </row>
     <row r="7648" spans="1:2">
@@ -61631,7 +61631,7 @@
         <v>7661</v>
       </c>
       <c r="B7661">
-        <v>193.7334378229277</v>
+        <v>193.7334378229276</v>
       </c>
     </row>
     <row r="7662" spans="1:2">
@@ -61735,7 +61735,7 @@
         <v>7674</v>
       </c>
       <c r="B7674">
-        <v>7.665976386680274</v>
+        <v>7.665976386680273</v>
       </c>
     </row>
     <row r="7675" spans="1:2">
@@ -61775,7 +61775,7 @@
         <v>7679</v>
       </c>
       <c r="B7679">
-        <v>86.90054517074613</v>
+        <v>86.90054517074611</v>
       </c>
     </row>
     <row r="7680" spans="1:2">
@@ -61847,7 +61847,7 @@
         <v>7688</v>
       </c>
       <c r="B7688">
-        <v>56.64858027596742</v>
+        <v>56.64858027596741</v>
       </c>
     </row>
     <row r="7689" spans="1:2">
@@ -61903,7 +61903,7 @@
         <v>7695</v>
       </c>
       <c r="B7695">
-        <v>7.133935223094468</v>
+        <v>7.133935223094467</v>
       </c>
     </row>
     <row r="7696" spans="1:2">
@@ -61999,7 +61999,7 @@
         <v>7707</v>
       </c>
       <c r="B7707">
-        <v>140.2054779666263</v>
+        <v>140.2054779666262</v>
       </c>
     </row>
     <row r="7708" spans="1:2">
@@ -62055,7 +62055,7 @@
         <v>7714</v>
       </c>
       <c r="B7714">
-        <v>18.93716615545309</v>
+        <v>18.93716615545308</v>
       </c>
     </row>
     <row r="7715" spans="1:2">
@@ -62079,7 +62079,7 @@
         <v>7717</v>
       </c>
       <c r="B7717">
-        <v>2.386700201808718</v>
+        <v>2.386700201808717</v>
       </c>
     </row>
     <row r="7718" spans="1:2">
@@ -62087,7 +62087,7 @@
         <v>7718</v>
       </c>
       <c r="B7718">
-        <v>0.5459092851352612</v>
+        <v>0.545909285135261</v>
       </c>
     </row>
     <row r="7719" spans="1:2">
@@ -62287,7 +62287,7 @@
         <v>7743</v>
       </c>
       <c r="B7743">
-        <v>3.63091571218314</v>
+        <v>3.630915712183139</v>
       </c>
     </row>
     <row r="7744" spans="1:2">
@@ -62319,7 +62319,7 @@
         <v>7747</v>
       </c>
       <c r="B7747">
-        <v>2.619674093282168</v>
+        <v>2.619674093282167</v>
       </c>
     </row>
     <row r="7748" spans="1:2">
@@ -62407,7 +62407,7 @@
         <v>7758</v>
       </c>
       <c r="B7758">
-        <v>87.81053074578961</v>
+        <v>87.81053074578959</v>
       </c>
     </row>
     <row r="7759" spans="1:2">
@@ -62423,7 +62423,7 @@
         <v>7760</v>
       </c>
       <c r="B7760">
-        <v>5.268479447807272</v>
+        <v>5.268479447807271</v>
       </c>
     </row>
     <row r="7761" spans="1:2">
@@ -62431,7 +62431,7 @@
         <v>7761</v>
       </c>
       <c r="B7761">
-        <v>9.478972446047088</v>
+        <v>9.478972446047086</v>
       </c>
     </row>
     <row r="7762" spans="1:2">
@@ -62439,7 +62439,7 @@
         <v>7762</v>
       </c>
       <c r="B7762">
-        <v>10.11903959448347</v>
+        <v>10.11903959448346</v>
       </c>
     </row>
     <row r="7763" spans="1:2">
@@ -62743,7 +62743,7 @@
         <v>7800</v>
       </c>
       <c r="B7800">
-        <v>23.57668584718925</v>
+        <v>23.57668584718924</v>
       </c>
     </row>
     <row r="7801" spans="1:2">
@@ -62847,7 +62847,7 @@
         <v>7813</v>
       </c>
       <c r="B7813">
-        <v>0.6341529748761923</v>
+        <v>0.6341529748761922</v>
       </c>
     </row>
     <row r="7814" spans="1:2">
@@ -62951,7 +62951,7 @@
         <v>7826</v>
       </c>
       <c r="B7826">
-        <v>0.153988022772792</v>
+        <v>0.1539880227727919</v>
       </c>
     </row>
     <row r="7827" spans="1:2">
@@ -63375,7 +63375,7 @@
         <v>7879</v>
       </c>
       <c r="B7879">
-        <v>0.2103523241412579</v>
+        <v>0.2103523241412578</v>
       </c>
     </row>
     <row r="7880" spans="1:2">
@@ -63511,7 +63511,7 @@
         <v>7896</v>
       </c>
       <c r="B7896">
-        <v>8.410875045645815</v>
+        <v>8.410875045645813</v>
       </c>
     </row>
     <row r="7897" spans="1:2">
@@ -63607,7 +63607,7 @@
         <v>7908</v>
       </c>
       <c r="B7908">
-        <v>47.23250087481706</v>
+        <v>47.23250087481705</v>
       </c>
     </row>
     <row r="7909" spans="1:2">
@@ -63655,7 +63655,7 @@
         <v>7914</v>
       </c>
       <c r="B7914">
-        <v>0.3804355152862923</v>
+        <v>0.3804355152862922</v>
       </c>
     </row>
     <row r="7915" spans="1:2">
@@ -63743,7 +63743,7 @@
         <v>7925</v>
       </c>
       <c r="B7925">
-        <v>157.7481241988171</v>
+        <v>157.748124198817</v>
       </c>
     </row>
     <row r="7926" spans="1:2">
@@ -63791,7 +63791,7 @@
         <v>7931</v>
       </c>
       <c r="B7931">
-        <v>20.93936887737967</v>
+        <v>20.93936887737966</v>
       </c>
     </row>
     <row r="7932" spans="1:2">
@@ -63919,7 +63919,7 @@
         <v>7947</v>
       </c>
       <c r="B7947">
-        <v>9.314618207565806</v>
+        <v>9.314618207565804</v>
       </c>
     </row>
     <row r="7948" spans="1:2">
@@ -64311,7 +64311,7 @@
         <v>7996</v>
       </c>
       <c r="B7996">
-        <v>99.7511240739688</v>
+        <v>99.75112407396878</v>
       </c>
     </row>
     <row r="7997" spans="1:2">
@@ -64359,7 +64359,7 @@
         <v>8002</v>
       </c>
       <c r="B8002">
-        <v>21.93613278697077</v>
+        <v>21.93613278697076</v>
       </c>
     </row>
     <row r="8003" spans="1:2">
@@ -64455,7 +64455,7 @@
         <v>8014</v>
       </c>
       <c r="B8014">
-        <v>29.62596515619808</v>
+        <v>29.62596515619807</v>
       </c>
     </row>
     <row r="8015" spans="1:2">
@@ -64559,7 +64559,7 @@
         <v>8027</v>
       </c>
       <c r="B8027">
-        <v>43.84137588646663</v>
+        <v>43.84137588646662</v>
       </c>
     </row>
     <row r="8028" spans="1:2">
@@ -64735,7 +64735,7 @@
         <v>8049</v>
       </c>
       <c r="B8049">
-        <v>80.44272483384339</v>
+        <v>80.44272483384337</v>
       </c>
     </row>
     <row r="8050" spans="1:2">
@@ -64879,7 +64879,7 @@
         <v>8067</v>
       </c>
       <c r="B8067">
-        <v>191.8296483557836</v>
+        <v>191.8296483557835</v>
       </c>
     </row>
     <row r="8068" spans="1:2">
@@ -64927,7 +64927,7 @@
         <v>8073</v>
       </c>
       <c r="B8073">
-        <v>71.48002632950212</v>
+        <v>71.48002632950211</v>
       </c>
     </row>
     <row r="8074" spans="1:2">
@@ -64935,7 +64935,7 @@
         <v>8074</v>
       </c>
       <c r="B8074">
-        <v>60.88550828189449</v>
+        <v>60.88550828189448</v>
       </c>
     </row>
     <row r="8075" spans="1:2">
@@ -64975,7 +64975,7 @@
         <v>8079</v>
       </c>
       <c r="B8079">
-        <v>7.067320176006744</v>
+        <v>7.067320176006743</v>
       </c>
     </row>
     <row r="8080" spans="1:2">
@@ -64999,7 +64999,7 @@
         <v>8082</v>
       </c>
       <c r="B8082">
-        <v>0.8197548636604222</v>
+        <v>0.8197548636604221</v>
       </c>
     </row>
     <row r="8083" spans="1:2">
@@ -65047,7 +65047,7 @@
         <v>8088</v>
       </c>
       <c r="B8088">
-        <v>93.22443204298064</v>
+        <v>93.22443204298062</v>
       </c>
     </row>
     <row r="8089" spans="1:2">
@@ -65111,7 +65111,7 @@
         <v>8096</v>
       </c>
       <c r="B8096">
-        <v>29.60691553868509</v>
+        <v>29.60691553868508</v>
       </c>
     </row>
     <row r="8097" spans="1:2">
@@ -65135,7 +65135,7 @@
         <v>8099</v>
       </c>
       <c r="B8099">
-        <v>43.43635171103665</v>
+        <v>43.43635171103664</v>
       </c>
     </row>
     <row r="8100" spans="1:2">
@@ -65311,7 +65311,7 @@
         <v>8121</v>
       </c>
       <c r="B8121">
-        <v>63.0659568095349</v>
+        <v>63.06595680953489</v>
       </c>
     </row>
     <row r="8122" spans="1:2">
@@ -65327,7 +65327,7 @@
         <v>8123</v>
       </c>
       <c r="B8123">
-        <v>75.48249750450012</v>
+        <v>75.4824975045001</v>
       </c>
     </row>
     <row r="8124" spans="1:2">
@@ -65367,7 +65367,7 @@
         <v>8128</v>
       </c>
       <c r="B8128">
-        <v>3.539565469432398</v>
+        <v>3.539565469432397</v>
       </c>
     </row>
     <row r="8129" spans="1:2">
@@ -65407,7 +65407,7 @@
         <v>8133</v>
       </c>
       <c r="B8133">
-        <v>36.6851672644339</v>
+        <v>36.68516726443389</v>
       </c>
     </row>
     <row r="8134" spans="1:2">
@@ -65631,7 +65631,7 @@
         <v>8161</v>
       </c>
       <c r="B8161">
-        <v>221.4175142769557</v>
+        <v>221.4175142769556</v>
       </c>
     </row>
     <row r="8162" spans="1:2">
@@ -65767,7 +65767,7 @@
         <v>8178</v>
       </c>
       <c r="B8178">
-        <v>143.4383445940996</v>
+        <v>143.4383445940995</v>
       </c>
     </row>
     <row r="8179" spans="1:2">
@@ -65823,7 +65823,7 @@
         <v>8185</v>
       </c>
       <c r="B8185">
-        <v>271.0318034829735</v>
+        <v>271.0318034829734</v>
       </c>
     </row>
     <row r="8186" spans="1:2">
@@ -66063,7 +66063,7 @@
         <v>8215</v>
       </c>
       <c r="B8215">
-        <v>289.8739267005887</v>
+        <v>289.8739267005886</v>
       </c>
     </row>
     <row r="8216" spans="1:2">
@@ -66127,7 +66127,7 @@
         <v>8223</v>
       </c>
       <c r="B8223">
-        <v>51.35982031228478</v>
+        <v>51.35982031228477</v>
       </c>
     </row>
     <row r="8224" spans="1:2">
@@ -66231,7 +66231,7 @@
         <v>8236</v>
       </c>
       <c r="B8236">
-        <v>264.9772488952688</v>
+        <v>264.9772488952687</v>
       </c>
     </row>
     <row r="8237" spans="1:2">
@@ -66295,7 +66295,7 @@
         <v>8244</v>
       </c>
       <c r="B8244">
-        <v>62.28668091773438</v>
+        <v>62.28668091773437</v>
       </c>
     </row>
     <row r="8245" spans="1:2">
@@ -66327,7 +66327,7 @@
         <v>8248</v>
       </c>
       <c r="B8248">
-        <v>31.00808817452498</v>
+        <v>31.00808817452497</v>
       </c>
     </row>
     <row r="8249" spans="1:2">
@@ -66479,7 +66479,7 @@
         <v>8267</v>
       </c>
       <c r="B8267">
-        <v>54.01914691709783</v>
+        <v>54.01914691709782</v>
       </c>
     </row>
     <row r="8268" spans="1:2">
@@ -66511,7 +66511,7 @@
         <v>8271</v>
       </c>
       <c r="B8271">
-        <v>19.37413507409716</v>
+        <v>19.37413507409715</v>
       </c>
     </row>
     <row r="8272" spans="1:2">
@@ -66615,7 +66615,7 @@
         <v>8284</v>
       </c>
       <c r="B8284">
-        <v>253.2016545618559</v>
+        <v>253.2016545618558</v>
       </c>
     </row>
     <row r="8285" spans="1:2">
@@ -66703,7 +66703,7 @@
         <v>8295</v>
       </c>
       <c r="B8295">
-        <v>98.50000380992353</v>
+        <v>98.5000038099235</v>
       </c>
     </row>
     <row r="8296" spans="1:2">
@@ -66983,7 +66983,7 @@
         <v>8330</v>
       </c>
       <c r="B8330">
-        <v>270.8530301493901</v>
+        <v>270.85303014939</v>
       </c>
     </row>
     <row r="8331" spans="1:2">
@@ -67095,7 +67095,7 @@
         <v>8344</v>
       </c>
       <c r="B8344">
-        <v>32.51945552090154</v>
+        <v>32.51945552090153</v>
       </c>
     </row>
     <row r="8345" spans="1:2">
@@ -67119,7 +67119,7 @@
         <v>8347</v>
       </c>
       <c r="B8347">
-        <v>164.8826455639889</v>
+        <v>164.8826455639888</v>
       </c>
     </row>
     <row r="8348" spans="1:2">
@@ -67207,7 +67207,7 @@
         <v>8358</v>
       </c>
       <c r="B8358">
-        <v>253.6274867810309</v>
+        <v>253.6274867810308</v>
       </c>
     </row>
     <row r="8359" spans="1:2">
@@ -67247,7 +67247,7 @@
         <v>8363</v>
       </c>
       <c r="B8363">
-        <v>52.23346507853425</v>
+        <v>52.23346507853424</v>
       </c>
     </row>
     <row r="8364" spans="1:2">
@@ -67351,7 +67351,7 @@
         <v>8376</v>
       </c>
       <c r="B8376">
-        <v>155.2743115614767</v>
+        <v>155.2743115614766</v>
       </c>
     </row>
     <row r="8377" spans="1:2">
@@ -67439,7 +67439,7 @@
         <v>8387</v>
       </c>
       <c r="B8387">
-        <v>68.17770186586608</v>
+        <v>68.17770186586607</v>
       </c>
     </row>
     <row r="8388" spans="1:2">
@@ -67623,7 +67623,7 @@
         <v>8410</v>
       </c>
       <c r="B8410">
-        <v>49.49442315120532</v>
+        <v>49.49442315120531</v>
       </c>
     </row>
     <row r="8411" spans="1:2">
@@ -67655,7 +67655,7 @@
         <v>8414</v>
       </c>
       <c r="B8414">
-        <v>16.06975911319049</v>
+        <v>16.06975911319048</v>
       </c>
     </row>
     <row r="8415" spans="1:2">
@@ -67703,7 +67703,7 @@
         <v>8420</v>
       </c>
       <c r="B8420">
-        <v>76.5979258776452</v>
+        <v>76.59792587764518</v>
       </c>
     </row>
     <row r="8421" spans="1:2">
@@ -67719,7 +67719,7 @@
         <v>8422</v>
       </c>
       <c r="B8422">
-        <v>67.57690623661033</v>
+        <v>67.57690623661031</v>
       </c>
     </row>
     <row r="8423" spans="1:2">
@@ -67759,7 +67759,7 @@
         <v>8427</v>
       </c>
       <c r="B8427">
-        <v>161.8180017127072</v>
+        <v>161.8180017127071</v>
       </c>
     </row>
     <row r="8428" spans="1:2">
@@ -67943,7 +67943,7 @@
         <v>8450</v>
       </c>
       <c r="B8450">
-        <v>137.0619980059447</v>
+        <v>137.0619980059446</v>
       </c>
     </row>
     <row r="8451" spans="1:2">
@@ -67975,7 +67975,7 @@
         <v>8454</v>
       </c>
       <c r="B8454">
-        <v>179.2492809502067</v>
+        <v>179.2492809502066</v>
       </c>
     </row>
     <row r="8455" spans="1:2">
@@ -68031,7 +68031,7 @@
         <v>8461</v>
       </c>
       <c r="B8461">
-        <v>23.40063807426538</v>
+        <v>23.40063807426537</v>
       </c>
     </row>
     <row r="8462" spans="1:2">
@@ -68375,7 +68375,7 @@
         <v>8504</v>
       </c>
       <c r="B8504">
-        <v>136.7170533934403</v>
+        <v>136.7170533934402</v>
       </c>
     </row>
     <row r="8505" spans="1:2">
@@ -68391,7 +68391,7 @@
         <v>8506</v>
       </c>
       <c r="B8506">
-        <v>155.3469931790647</v>
+        <v>155.3469931790646</v>
       </c>
     </row>
     <row r="8507" spans="1:2">
@@ -68447,7 +68447,7 @@
         <v>8513</v>
       </c>
       <c r="B8513">
-        <v>79.5479789528103</v>
+        <v>79.54797895281028</v>
       </c>
     </row>
     <row r="8514" spans="1:2">
@@ -68567,7 +68567,7 @@
         <v>8528</v>
       </c>
       <c r="B8528">
-        <v>154.5099822926479</v>
+        <v>154.5099822926478</v>
       </c>
     </row>
     <row r="8529" spans="1:2">
@@ -68647,7 +68647,7 @@
         <v>8538</v>
       </c>
       <c r="B8538">
-        <v>102.9971788981819</v>
+        <v>102.9971788981818</v>
       </c>
     </row>
     <row r="8539" spans="1:2">
@@ -68655,7 +68655,7 @@
         <v>8539</v>
       </c>
       <c r="B8539">
-        <v>250.9297678701532</v>
+        <v>250.9297678701531</v>
       </c>
     </row>
     <row r="8540" spans="1:2">
@@ -68911,7 +68911,7 @@
         <v>8571</v>
       </c>
       <c r="B8571">
-        <v>305.9163422858721</v>
+        <v>305.916342285872</v>
       </c>
     </row>
     <row r="8572" spans="1:2">
@@ -69631,7 +69631,7 @@
         <v>8661</v>
       </c>
       <c r="B8661">
-        <v>66.59804896748143</v>
+        <v>66.59804896748142</v>
       </c>
     </row>
     <row r="8662" spans="1:2">
@@ -69711,7 +69711,7 @@
         <v>8671</v>
       </c>
       <c r="B8671">
-        <v>207.4945884432712</v>
+        <v>207.4945884432711</v>
       </c>
     </row>
     <row r="8672" spans="1:2">
@@ -69719,7 +69719,7 @@
         <v>8672</v>
       </c>
       <c r="B8672">
-        <v>45.94298830470714</v>
+        <v>45.94298830470713</v>
       </c>
     </row>
     <row r="8673" spans="1:2">
@@ -69727,7 +69727,7 @@
         <v>8673</v>
       </c>
       <c r="B8673">
-        <v>51.86888470643954</v>
+        <v>51.86888470643953</v>
       </c>
     </row>
     <row r="8674" spans="1:2">
@@ -69847,7 +69847,7 @@
         <v>8688</v>
       </c>
       <c r="B8688">
-        <v>87.1607922530774</v>
+        <v>87.16079225307739</v>
       </c>
     </row>
     <row r="8689" spans="1:2">
@@ -69895,7 +69895,7 @@
         <v>8694</v>
       </c>
       <c r="B8694">
-        <v>165.4808035538967</v>
+        <v>165.4808035538966</v>
       </c>
     </row>
     <row r="8695" spans="1:2">
@@ -69911,7 +69911,7 @@
         <v>8696</v>
       </c>
       <c r="B8696">
-        <v>23.01771145515046</v>
+        <v>23.01771145515045</v>
       </c>
     </row>
     <row r="8697" spans="1:2">
@@ -69975,7 +69975,7 @@
         <v>8704</v>
       </c>
       <c r="B8704">
-        <v>6.006373708948807</v>
+        <v>6.006373708948806</v>
       </c>
     </row>
     <row r="8705" spans="1:2">
@@ -70007,7 +70007,7 @@
         <v>8708</v>
       </c>
       <c r="B8708">
-        <v>33.52351689935531</v>
+        <v>33.5235168993553</v>
       </c>
     </row>
     <row r="8709" spans="1:2">
@@ -70415,7 +70415,7 @@
         <v>8759</v>
       </c>
       <c r="B8759">
-        <v>91.23682425877939</v>
+        <v>91.23682425877938</v>
       </c>
     </row>
     <row r="8760" spans="1:2">
